--- a/analisis de tablas.xlsx
+++ b/analisis de tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony Vidaur\Desktop\Jocs\Bases\proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell E6420\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
   <si>
     <t>Usuarios</t>
   </si>
@@ -225,13 +225,100 @@
   </si>
   <si>
     <t>fecha_modificacion</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Codigo Idioma</t>
+  </si>
+  <si>
+    <t>cod_idioma</t>
+  </si>
+  <si>
+    <t>todos</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>tipo_privado</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>cod_forma_pago</t>
+  </si>
+  <si>
+    <t>forma_pago</t>
+  </si>
+  <si>
+    <t>card_number</t>
+  </si>
+  <si>
+    <t>Fecha_inicio</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>cod_postal</t>
+  </si>
+  <si>
+    <t>forma de pago</t>
+  </si>
+  <si>
+    <t>tarjeta de credito</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>Seguidores</t>
+  </si>
+  <si>
+    <t>Cod_usuario</t>
+  </si>
+  <si>
+    <t>cantidad de seguidores</t>
+  </si>
+  <si>
+    <t>cantidad de siguiendos</t>
+  </si>
+  <si>
+    <t>Empresa (ag)</t>
+  </si>
+  <si>
+    <t>perfil de trabajos</t>
+  </si>
+  <si>
+    <t>perfil_trabajos</t>
+  </si>
+  <si>
+    <t>cod_perfil_trabajos</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>no disponible</t>
+  </si>
+  <si>
+    <t>Cod_perfiltrabajo (ag)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +330,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -299,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -309,6 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -590,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T30"/>
+  <dimension ref="B2:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="K8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,9 +706,14 @@
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
@@ -668,6 +769,12 @@
       </c>
       <c r="P3" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -698,6 +805,10 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -719,6 +830,10 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -740,6 +855,10 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -761,6 +880,10 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -782,6 +905,10 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -803,6 +930,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -846,7 +975,12 @@
       <c r="L14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="M14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="O14" s="6" t="s">
         <v>35</v>
       </c>
@@ -890,6 +1024,9 @@
       <c r="L15" s="2">
         <v>1</v>
       </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -915,8 +1052,11 @@
       <c r="L16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
@@ -940,8 +1080,11 @@
       <c r="L17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>45</v>
       </c>
@@ -961,8 +1104,21 @@
       <c r="O20" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="W20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -1001,8 +1157,23 @@
       <c r="Q21" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>1</v>
       </c>
@@ -1037,8 +1208,17 @@
         <v>62</v>
       </c>
       <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="W22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>2</v>
       </c>
@@ -1073,8 +1253,17 @@
         <v>63</v>
       </c>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="W23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="X23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>3</v>
       </c>
@@ -1109,8 +1298,11 @@
         <v>62</v>
       </c>
       <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>4</v>
       </c>
@@ -1145,8 +1337,11 @@
         <v>64</v>
       </c>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1172,7 +1367,7 @@
       </c>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>53</v>
       </c>
@@ -1191,7 +1386,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
@@ -1213,8 +1408,14 @@
       <c r="J28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>1</v>
       </c>
@@ -1227,8 +1428,14 @@
       <c r="F29" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>2</v>
       </c>
@@ -1240,6 +1447,124 @@
       </c>
       <c r="F30" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1247,5 +1572,6 @@
     <hyperlink ref="F4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/analisis de tablas.xlsx
+++ b/analisis de tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell E6420\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rony Vidaur\Desktop\Jocs\Bases\proyecto\repo\Proyecto-BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K8" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>

--- a/analisis de tablas.xlsx
+++ b/analisis de tablas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>Usuarios</t>
   </si>
@@ -152,9 +152,6 @@
     <t>titulo</t>
   </si>
   <si>
-    <t>estado</t>
-  </si>
-  <si>
     <t>pull_requests</t>
   </si>
   <si>
@@ -227,21 +224,9 @@
     <t>fecha_modificacion</t>
   </si>
   <si>
-    <t>Idioma</t>
-  </si>
-  <si>
     <t>Codigo Idioma</t>
   </si>
   <si>
-    <t>cod_idioma</t>
-  </si>
-  <si>
-    <t>todos</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>tipo_privado</t>
   </si>
   <si>
@@ -312,6 +297,48 @@
   </si>
   <si>
     <t>Cod_perfiltrabajo (ag)</t>
+  </si>
+  <si>
+    <t>cod_repositorio</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>cod_topic</t>
+  </si>
+  <si>
+    <t>nombre_topic</t>
+  </si>
+  <si>
+    <t>Watching</t>
+  </si>
+  <si>
+    <t>cod_usuario</t>
+  </si>
+  <si>
+    <t>cod_comentario</t>
+  </si>
+  <si>
+    <t>cod_issue</t>
+  </si>
+  <si>
+    <t>codigo_reaccion</t>
+  </si>
+  <si>
+    <t>fecha_comentario</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>cod_comentario_padre</t>
+  </si>
+  <si>
+    <t>Reacciones</t>
+  </si>
+  <si>
+    <t>fecha_reaccion</t>
   </si>
 </sst>
 </file>
@@ -392,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -402,9 +429,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -688,35 +717,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -724,7 +754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -771,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -810,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -835,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -860,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -885,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -910,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -933,7 +963,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
@@ -941,7 +971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -961,10 +991,10 @@
         <v>33</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>40</v>
@@ -973,13 +1003,13 @@
         <v>27</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>35</v>
@@ -991,16 +1021,13 @@
         <v>41</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T14" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
@@ -1028,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -1086,12 +1113,12 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1099,35 +1126,35 @@
         <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="U20" s="1"/>
       <c r="W20" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1140,37 +1167,37 @@
         <v>10</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
@@ -1205,14 +1232,14 @@
         <v>1</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
@@ -1250,14 +1277,14 @@
         <v>2</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="W23" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X23" s="2">
         <v>2</v>
@@ -1295,7 +1322,7 @@
         <v>3</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="S24" s="2"/>
@@ -1334,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="S25" s="2"/>
@@ -1363,16 +1390,16 @@
         <v>5</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="2">
         <v>6</v>
@@ -1388,16 +1415,16 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28" s="2">
         <v>6</v>
@@ -1408,100 +1435,87 @@
       <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>73</v>
-      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>69</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" s="11">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -1512,8 +1526,20 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -1524,8 +1550,12 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1534,38 +1564,101 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2">
         <v>2</v>
       </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
